--- a/generadas/LEBAC 35 DIAS TNC PF-1.xlsx
+++ b/generadas/LEBAC 35 DIAS TNC PF-1.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
   <si>
     <t xml:space="preserve">     Licitación Letras del Banco Central de la República Argentina (BCRA) en Pesos</t>
   </si>
@@ -25,7 +25,7 @@
     <t>Fecha:</t>
   </si>
   <si>
-    <t>26-Apr-2016</t>
+    <t>31-May-2016</t>
   </si>
   <si>
     <t>CÓDIGO AGENTE:</t>
@@ -70,34 +70,28 @@
     <t>OBSERVACIONES</t>
   </si>
   <si>
-    <t>27-25495985-0</t>
-  </si>
-  <si>
-    <t>20-04159860-4</t>
-  </si>
-  <si>
-    <t>23-04157909-9</t>
-  </si>
-  <si>
-    <t>27-14027293-6</t>
-  </si>
-  <si>
-    <t>27-34027610-3</t>
-  </si>
-  <si>
-    <t>20-18845541-8</t>
-  </si>
-  <si>
-    <t>20-35366031-5</t>
-  </si>
-  <si>
-    <t>20-12894935-7</t>
-  </si>
-  <si>
-    <t>20-33085722-7</t>
-  </si>
-  <si>
-    <t>23-26280490-9</t>
+    <t>27-30653816-6</t>
+  </si>
+  <si>
+    <t>27-22675939-0</t>
+  </si>
+  <si>
+    <t>20-28702011-3</t>
+  </si>
+  <si>
+    <t>20-22489549-7</t>
+  </si>
+  <si>
+    <t>20-30466472-0</t>
+  </si>
+  <si>
+    <t>27-04484481-3</t>
+  </si>
+  <si>
+    <t>20-13915466-6</t>
+  </si>
+  <si>
+    <t>20-14264320-1</t>
   </si>
   <si>
     <t>TOTAL:</t>
@@ -1214,7 +1208,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="18">
-        <v>62000</v>
+        <v>25000</v>
       </c>
       <c r="C14" s="19"/>
       <c r="D14" s="37" t="s">
@@ -1228,7 +1222,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="22">
-        <v>257000</v>
+        <v>56000</v>
       </c>
       <c r="C15" s="23"/>
       <c r="D15" s="33" t="s">
@@ -1242,7 +1236,7 @@
         <v>3</v>
       </c>
       <c r="B16" s="22">
-        <v>342000</v>
+        <v>227000</v>
       </c>
       <c r="C16" s="23"/>
       <c r="D16" s="33" t="s">
@@ -1256,7 +1250,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="22">
-        <v>221000</v>
+        <v>528000</v>
       </c>
       <c r="C17" s="23"/>
       <c r="D17" s="33" t="s">
@@ -1270,7 +1264,7 @@
         <v>5</v>
       </c>
       <c r="B18" s="22">
-        <v>7000</v>
+        <v>19000</v>
       </c>
       <c r="C18" s="23"/>
       <c r="D18" s="33" t="s">
@@ -1284,7 +1278,7 @@
         <v>6</v>
       </c>
       <c r="B19" s="22">
-        <v>121000</v>
+        <v>289000</v>
       </c>
       <c r="C19" s="23"/>
       <c r="D19" s="33" t="s">
@@ -1298,7 +1292,7 @@
         <v>7</v>
       </c>
       <c r="B20" s="22">
-        <v>26000</v>
+        <v>206000</v>
       </c>
       <c r="C20" s="23"/>
       <c r="D20" s="33" t="s">
@@ -1312,7 +1306,7 @@
         <v>8</v>
       </c>
       <c r="B21" s="22">
-        <v>103000</v>
+        <v>12000</v>
       </c>
       <c r="C21" s="23"/>
       <c r="D21" s="33" t="s">
@@ -1325,13 +1319,9 @@
       <c r="A22" s="21">
         <v>9</v>
       </c>
-      <c r="B22" s="22">
-        <v>22000</v>
-      </c>
+      <c r="B22" s="22"/>
       <c r="C22" s="23"/>
-      <c r="D22" s="33" t="s">
-        <v>25</v>
-      </c>
+      <c r="D22" s="33"/>
       <c r="E22" s="34"/>
       <c r="F22" s="24"/>
     </row>
@@ -1339,19 +1329,15 @@
       <c r="A23" s="25">
         <v>10</v>
       </c>
-      <c r="B23" s="26">
-        <v>92000</v>
-      </c>
+      <c r="B23" s="26"/>
       <c r="C23" s="23"/>
-      <c r="D23" s="33" t="s">
-        <v>26</v>
-      </c>
+      <c r="D23" s="33"/>
       <c r="E23" s="34"/>
       <c r="F23" s="24"/>
     </row>
     <row r="24" spans="1:7" customHeight="1" ht="21">
       <c r="A24" s="27" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B24" s="28" t="str">
         <f>SUM($B$14:$B$23)</f>
@@ -1361,7 +1347,7 @@
     <row r="25" spans="1:7" customHeight="1" ht="12"/>
     <row r="27" spans="1:7" customHeight="1" ht="18">
       <c r="D27" s="35" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E27" s="35"/>
       <c r="F27" s="35"/>
@@ -1369,12 +1355,12 @@
     <row r="28" spans="1:7" customHeight="1" ht="3.75"/>
     <row r="29" spans="1:7" customHeight="1" ht="15.75">
       <c r="A29" s="29" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:7" customHeight="1" ht="14.25">
       <c r="A30" s="36" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B30" s="36"/>
       <c r="C30" s="36"/>
@@ -1384,7 +1370,7 @@
     </row>
     <row r="31" spans="1:7" customHeight="1" ht="27.75">
       <c r="A31" s="32" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B31" s="32"/>
       <c r="C31" s="32"/>
@@ -1394,7 +1380,7 @@
     </row>
     <row r="32" spans="1:7" customHeight="1" ht="42.75">
       <c r="A32" s="32" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B32" s="32"/>
       <c r="C32" s="32"/>
@@ -1404,7 +1390,7 @@
     </row>
     <row r="33" spans="1:7" customHeight="1" ht="14.25">
       <c r="A33" s="30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
@@ -1578,7 +1564,7 @@
     </dataValidation>
   </dataValidations>
   <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.74803149606299" right="0.74803149606299" top="1.1811023622047" bottom="0.98425196850394" header="0.51" footer="0"/>
+  <pageMargins left="0.748031496062992" right="0.748031496062992" top="1.18110236220472" bottom="0.984251968503937" header="0.51" footer="0"/>
   <pageSetup paperSize="1" orientation="portrait" scale="85" fitToHeight="1" fitToWidth="1"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="false">
     <oddHeader/>
